--- a/results/fgsea_pre_R_vs_NR.xlsx
+++ b/results/fgsea_pre_R_vs_NR.xlsx
@@ -406,26 +406,26 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6666666666666666</v>
+        <v>0.7102649006622517</v>
       </c>
       <c r="C2">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D2">
-        <v>0.05571042267666709</v>
+        <v>0.05269730857084192</v>
       </c>
       <c r="E2">
-        <v>-0.2020695057263405</v>
+        <v>-0.199386901060544</v>
       </c>
       <c r="F2">
-        <v>-0.8147914454013219</v>
+        <v>-0.7910105682283871</v>
       </c>
       <c r="G2">
         <v>16</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FOXA1,TACSTD2,SOSTDC1</t>
+          <t>FOXA1,TACSTD2,SOSTDC1,CPE,ADGRG6</t>
         </is>
       </c>
     </row>
@@ -436,26 +436,26 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4287974683544304</v>
+        <v>0.3008264462809918</v>
       </c>
       <c r="C3">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D3">
-        <v>0.07492788183937392</v>
+        <v>0.09688777032754396</v>
       </c>
       <c r="E3">
-        <v>-0.2333037282220048</v>
+        <v>-0.2767904863108314</v>
       </c>
       <c r="F3">
-        <v>-1.005359252680419</v>
+        <v>-1.13888988278478</v>
       </c>
       <c r="G3">
         <v>18</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>IGFBP2,FOXA1,TACSTD2,CD177,SPINK5</t>
+          <t>IGFBP2,FOXA1,TACSTD2,PCDH20,CD177,SPINK5</t>
         </is>
       </c>
     </row>
@@ -466,26 +466,26 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.6540880503144654</v>
+        <v>0.3403908794788273</v>
       </c>
       <c r="C4">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D4">
-        <v>0.05412005696202318</v>
+        <v>0.08889452886204495</v>
       </c>
       <c r="E4">
-        <v>-0.1877323504476029</v>
+        <v>-0.2636360437322216</v>
       </c>
       <c r="F4">
-        <v>-0.8227644578336001</v>
+        <v>-1.113238746534592</v>
       </c>
       <c r="G4">
         <v>19</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CD177,ITLN1,SPINK5,ZG16,PLAC8,WFDC2,REG4</t>
+          <t>PLAC8,PLA2G2A,CD177,REG4,ITLN1,SPINK5,ZG16,WFDC2</t>
         </is>
       </c>
     </row>
@@ -496,26 +496,26 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.6917293233082706</v>
+        <v>0.6423841059602649</v>
       </c>
       <c r="C5">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D5">
-        <v>0.07399014391013414</v>
+        <v>0.05736674267685558</v>
       </c>
       <c r="E5">
-        <v>0.1807891156907264</v>
+        <v>-0.212204308611648</v>
       </c>
       <c r="F5">
-        <v>0.8163609429906391</v>
+        <v>-0.8418599709538699</v>
       </c>
       <c r="G5">
         <v>16</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ACSL6,TWIST1,FABP3,TRIB3,GPCPD1,ERLIN2,FABP1,ABCA8,CES1,PLA2G2A,ADH1C,ADH1B,ADH1A</t>
+          <t>PLA2G2A,ADH1B,ALDH1A1,DHRS9,FABP1,GSTA1</t>
         </is>
       </c>
     </row>
@@ -526,26 +526,26 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.6756329113924051</v>
+        <v>0.7421487603305785</v>
       </c>
       <c r="C6">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D6">
-        <v>0.05291298484305835</v>
+        <v>0.05060042438536184</v>
       </c>
       <c r="E6">
-        <v>-0.187734046874244</v>
+        <v>-0.1920087568050829</v>
       </c>
       <c r="F6">
-        <v>-0.8089890483385733</v>
+        <v>-0.7900446053836605</v>
       </c>
       <c r="G6">
         <v>18</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>IGFBP2,FOXA1,SOSTDC1</t>
+          <t>IGFBP2,FOXA1,SOSTDC1,CPE,EDN3</t>
         </is>
       </c>
     </row>
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1490384615384615</v>
+        <v>0.1352040816326531</v>
       </c>
       <c r="C7">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D7">
-        <v>0.1782198749519731</v>
+        <v>0.1938133027253105</v>
       </c>
       <c r="E7">
-        <v>0.3058337859992837</v>
+        <v>0.3072432292691921</v>
       </c>
       <c r="F7">
-        <v>1.34654784980106</v>
+        <v>1.350276324307815</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.8754045307443366</v>
+        <v>0.9042904290429042</v>
       </c>
       <c r="C8">
-        <v>0.9027303754266212</v>
+        <v>0.9365865157944366</v>
       </c>
       <c r="D8">
-        <v>0.042077210988939</v>
+        <v>0.04148804020022096</v>
       </c>
       <c r="E8">
-        <v>-0.1567567567567568</v>
+        <v>-0.1496062992125984</v>
       </c>
       <c r="F8">
-        <v>-0.6559954042980299</v>
+        <v>-0.6130932038620537</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -616,26 +616,26 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2195121951219512</v>
+        <v>0.233983286908078</v>
       </c>
       <c r="C9">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D9">
-        <v>0.1541909665814243</v>
+        <v>0.1511487613854837</v>
       </c>
       <c r="E9">
-        <v>0.2442525983649146</v>
+        <v>0.2421707842970665</v>
       </c>
       <c r="F9">
-        <v>1.220863125558717</v>
+        <v>1.224717641188089</v>
       </c>
       <c r="G9">
         <v>21</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>HLA-C,ORM1,ORM2,CXCL8,CCL18,CXCL5</t>
+          <t>HLA-C,ORM1,ORM2,CXCL8,CCL18,CXCL5,C2CD4A</t>
         </is>
       </c>
     </row>
@@ -646,19 +646,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.5801886792452831</v>
+        <v>0.7801302931596091</v>
       </c>
       <c r="C10">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D10">
-        <v>0.05973179763644106</v>
+        <v>0.04763872592908251</v>
       </c>
       <c r="E10">
-        <v>-0.2016599871807358</v>
+        <v>-0.1776665547999622</v>
       </c>
       <c r="F10">
-        <v>-0.8838043609633364</v>
+        <v>-0.750220986351632</v>
       </c>
       <c r="G10">
         <v>19</v>
@@ -676,26 +676,26 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.6692426584234931</v>
+        <v>0.5969465648854961</v>
       </c>
       <c r="C11">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D11">
-        <v>0.05226933174993056</v>
+        <v>0.05700595265823873</v>
       </c>
       <c r="E11">
-        <v>-0.1666666666666666</v>
+        <v>-0.1823503771820906</v>
       </c>
       <c r="F11">
-        <v>-0.819973537991102</v>
+        <v>-0.8833766946844386</v>
       </c>
       <c r="G11">
         <v>28</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FOXA1,SLC4A4,EDN3,PLAC8,PLN,ALDH1A1,SCARA5,CA2,MS4A1,TFF1,CLDN18,TNFRSF17,SERPINA3,LGALS2,PLA2G2A,CES1,CXCL12,AQP3,LYZ,JCHAIN,PRKACB,MUC2,MT1A,IL6,FABP3,MT1F,MT1H,SLC30A2</t>
+          <t>FOXA1,PLAC8,PLA2G2A,SLC4A4,ALDH1A1,EDN3,PLN,SCARA5,CA2,SERPINA3,MS4A1,TFF1,CLDN18,TNFRSF17,LGALS2</t>
         </is>
       </c>
     </row>
@@ -706,19 +706,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.4617486338797814</v>
+        <v>0.4201030927835052</v>
       </c>
       <c r="C12">
-        <v>0.9027303754266212</v>
+        <v>0.8121993127147766</v>
       </c>
       <c r="D12">
-        <v>0.1013507437970989</v>
+        <v>0.1035763266125924</v>
       </c>
       <c r="E12">
-        <v>0.2094464363443406</v>
+        <v>0.2109065884527995</v>
       </c>
       <c r="F12">
-        <v>0.989980902240274</v>
+        <v>1.034848199750296</v>
       </c>
       <c r="G12">
         <v>19</v>
@@ -736,26 +736,26 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.5888888888888889</v>
+        <v>0.2904761904761905</v>
       </c>
       <c r="C13">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D13">
-        <v>0.05947602869573201</v>
+        <v>0.09656295543094219</v>
       </c>
       <c r="E13">
-        <v>-0.1955226360448357</v>
+        <v>-0.2682525657934992</v>
       </c>
       <c r="F13">
-        <v>-0.8715411057137433</v>
+        <v>-1.160256994456255</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CLCA4,CLCA1,SLC4A4,EDN3,PLN,CA4,ABCG2,SCARA5,CA2</t>
+          <t>CLCA4,CLCA1,PLA2G2A,SLC4A4,EDN3,PLN,CA4,ABCG2,SCARA5,CA2</t>
         </is>
       </c>
     </row>
@@ -766,26 +766,26 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.7588075880758808</v>
+        <v>0.6257763975155279</v>
       </c>
       <c r="C14">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D14">
-        <v>0.07325586558284547</v>
+        <v>0.05559470977588687</v>
       </c>
       <c r="E14">
-        <v>0.1506405971204936</v>
+        <v>-0.1917650830783441</v>
       </c>
       <c r="F14">
-        <v>0.7776009638536721</v>
+        <v>-0.8619796884556938</v>
       </c>
       <c r="G14">
         <v>22</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CYP4X1,ACSL6,TWIST1,FABP3,TRIB3,GPCPD1,ERLIN2,FMO5,FABP1,VSIG2,ABCA8,CES1,PLA2G2A,ADH1C,SERPINA3,ADH1B,ADH1A,UGT2B7,ALDH1A1,GSTA1</t>
+          <t>PLA2G2A,ADH1B,ALDH1A1,DHRS9,HSD17B2,FABP1,GSTA1,UGT2B7,SERPINA3,ADH1C,ADH1A</t>
         </is>
       </c>
     </row>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.1490384615384615</v>
+        <v>0.1352040816326531</v>
       </c>
       <c r="C15">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D15">
-        <v>0.1782198749519731</v>
+        <v>0.1938133027253105</v>
       </c>
       <c r="E15">
-        <v>0.3058337859992837</v>
+        <v>0.3072432292691921</v>
       </c>
       <c r="F15">
-        <v>1.34654784980106</v>
+        <v>1.350276324307815</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -826,26 +826,26 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.878839590443686</v>
+        <v>0.2737704918032787</v>
       </c>
       <c r="C16">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D16">
-        <v>0.0443293451680314</v>
+        <v>0.1020801076627472</v>
       </c>
       <c r="E16">
-        <v>-0.165524929813192</v>
+        <v>-0.2990970261828452</v>
       </c>
       <c r="F16">
-        <v>-0.6465397175701937</v>
+        <v>-1.160634396465638</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SLC4A4,DHRS9,GSTA1,ALDH1A1,UGT2B7,ADH1A,ADH1B,ADH1C,CES1</t>
+          <t>SLC4A4,ADH1B,ALDH1A1,DHRS9,FABP1,GSTA1,UGT2B7,ADH1C,ADH1A</t>
         </is>
       </c>
     </row>
@@ -856,26 +856,26 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.431740614334471</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="C17">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D17">
-        <v>0.07850290473486872</v>
+        <v>0.1133129084220804</v>
       </c>
       <c r="E17">
-        <v>-0.2574239770606787</v>
+        <v>-0.314191442695401</v>
       </c>
       <c r="F17">
-        <v>-1.005497030643312</v>
+        <v>-1.21920769364159</v>
       </c>
       <c r="G17">
         <v>15</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FOXA1,TACSTD2,SOSTDC1,SPINK5,PLAC8,PLN,ALDH1A1</t>
+          <t>FOXA1,TACSTD2,PLAC8,SOSTDC1,ALDH1A1,SPINK5</t>
         </is>
       </c>
     </row>
@@ -886,26 +886,26 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.78839590443686</v>
+        <v>0.5868852459016394</v>
       </c>
       <c r="C18">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D18">
-        <v>0.04929176623126693</v>
+        <v>0.06116926267466889</v>
       </c>
       <c r="E18">
-        <v>-0.1884723262016294</v>
+        <v>-0.2293061701576539</v>
       </c>
       <c r="F18">
-        <v>-0.7361721566033692</v>
+        <v>-0.8898136895686733</v>
       </c>
       <c r="G18">
         <v>15</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FOXA1,STMN2,SPINK5,EDN3</t>
+          <t>FOXA1,STMN2,SPINK5,EDN3,ADGRG6</t>
         </is>
       </c>
     </row>
@@ -916,26 +916,26 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.4098101265822785</v>
+        <v>0.05950413223140496</v>
       </c>
       <c r="C19">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D19">
-        <v>0.07727469730447099</v>
+        <v>0.2377938344236881</v>
       </c>
       <c r="E19">
-        <v>-0.2371155741908469</v>
+        <v>-0.3717176133274559</v>
       </c>
       <c r="F19">
-        <v>-1.021785370873102</v>
+        <v>-1.52947969677012</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SLC4A4,DHRS9,HGD,GSTA1,ALDH1A1,UGT2B7,ABCG2,GHR,ADH1A,ADH1B,ADH1C,CES1</t>
+          <t>SLC4A4,ADH1B,ALDH1A1,DHRS9,HGD,FABP1,GSTA1,UGT2B7,ABCG2,GHR,ADH1C,ADH1A</t>
         </is>
       </c>
     </row>
@@ -946,26 +946,26 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.8341346153846154</v>
+        <v>0.7508196721311475</v>
       </c>
       <c r="C20">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D20">
-        <v>0.06266182309324915</v>
+        <v>0.04969013927246056</v>
       </c>
       <c r="E20">
-        <v>0.1589732626605275</v>
+        <v>-0.1974065976573168</v>
       </c>
       <c r="F20">
-        <v>0.6999393618725099</v>
+        <v>-0.7660286371094517</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>WT1,CXCL8,JAG1,TWIST1,IL6,GDF10,SOX6,SLITRK6,CXCL12</t>
+          <t>FOXA1,TACSTD2,PLA2G2A</t>
         </is>
       </c>
     </row>
@@ -976,26 +976,26 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.4112769485903814</v>
+        <v>0.1572847682119205</v>
       </c>
       <c r="C21">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D21">
-        <v>0.07955646772359566</v>
+        <v>0.1412251196425309</v>
       </c>
       <c r="E21">
-        <v>-0.256163112257429</v>
+        <v>-0.331589522794687</v>
       </c>
       <c r="F21">
-        <v>-1.03290950182952</v>
+        <v>-1.315486701730523</v>
       </c>
       <c r="G21">
         <v>16</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CLCA4,CLCA1,SPINK5,CPE,WFDC2,ADGRG6,SPINK4</t>
+          <t>CLCA4,CLCA1,SPINK5,CPE,ADGRG6,FABP1,WFDC2,SPINK4,SERPINA3</t>
         </is>
       </c>
     </row>
@@ -1006,26 +1006,26 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.4385113268608414</v>
+        <v>0.2656765676567657</v>
       </c>
       <c r="C22">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D22">
-        <v>0.07492788183937392</v>
+        <v>0.1043439525819486</v>
       </c>
       <c r="E22">
-        <v>-0.2406978448455919</v>
+        <v>-0.2906244661829525</v>
       </c>
       <c r="F22">
-        <v>-1.007271924413189</v>
+        <v>-1.190991863515068</v>
       </c>
       <c r="G22">
         <v>17</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FOXA1,TACSTD2,SOSTDC1,SPINK5,EDN3</t>
+          <t>FOXA1,TACSTD2,SOSTDC1,PLA2G2A,SPINK5,EDN3</t>
         </is>
       </c>
     </row>
@@ -1036,26 +1036,26 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.7864583333333334</v>
+        <v>0.6567656765676567</v>
       </c>
       <c r="C23">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D23">
-        <v>0.06944814420031753</v>
+        <v>0.05617665863071758</v>
       </c>
       <c r="E23">
-        <v>0.1657808891551323</v>
+        <v>-0.2032047682107265</v>
       </c>
       <c r="F23">
-        <v>0.7600350813744617</v>
+        <v>-0.83274209066104</v>
       </c>
       <c r="G23">
         <v>17</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>WT1,CXCL8,CXCL5,JAG1,TWIST1,FABP3,IL6</t>
+          <t>IGFBP2,TACSTD2,PLAC8</t>
         </is>
       </c>
     </row>
@@ -1066,26 +1066,26 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.6416040100250626</v>
+        <v>0.7168874172185431</v>
       </c>
       <c r="C24">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D24">
-        <v>0.07788401119770678</v>
+        <v>0.05226933174993056</v>
       </c>
       <c r="E24">
-        <v>0.1898740139935363</v>
+        <v>-0.1984410842731337</v>
       </c>
       <c r="F24">
-        <v>0.8573841877646406</v>
+        <v>-0.7872583103294483</v>
       </c>
       <c r="G24">
         <v>16</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ORM1,ORM2,CXCL8</t>
+          <t>IGFBP2,PLA2G2A,CD177,SPINK5,EDN3</t>
         </is>
       </c>
     </row>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.9027303754266212</v>
+        <v>0.9377049180327869</v>
       </c>
       <c r="C25">
-        <v>0.9027303754266212</v>
+        <v>0.9377049180327869</v>
       </c>
       <c r="D25">
-        <v>0.04310368287904025</v>
+        <v>0.03951722284739186</v>
       </c>
       <c r="E25">
-        <v>-0.160427807486631</v>
+        <v>-0.1550387596899225</v>
       </c>
       <c r="F25">
-        <v>-0.6266303780335166</v>
+        <v>-0.6016218869775409</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -1126,26 +1126,26 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.439469320066335</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="C26">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D26">
-        <v>0.07608371609517249</v>
+        <v>0.09754492162471996</v>
       </c>
       <c r="E26">
-        <v>-0.2493824257089273</v>
+        <v>-0.2934854099699655</v>
       </c>
       <c r="F26">
-        <v>-1.005568189869519</v>
+        <v>-1.164319519849456</v>
       </c>
       <c r="G26">
         <v>16</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>IGFBP2,FOXA1,SOSTDC1,STMN2</t>
+          <t>IGFBP2,FOXA1,STMN2,SOSTDC1</t>
         </is>
       </c>
     </row>
@@ -1156,19 +1156,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.8666666666666667</v>
+        <v>0.8793650793650793</v>
       </c>
       <c r="C27">
-        <v>0.9027303754266212</v>
+        <v>0.9365865157944366</v>
       </c>
       <c r="D27">
-        <v>0.04165567739794673</v>
+        <v>0.04098838733747214</v>
       </c>
       <c r="E27">
-        <v>-0.1457356959152361</v>
+        <v>-0.1482111017851869</v>
       </c>
       <c r="F27">
-        <v>-0.6496160860413152</v>
+        <v>-0.6410487332848407</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -1186,26 +1186,26 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.4716981132075472</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C28">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D28">
-        <v>0.06977925170762346</v>
+        <v>0.2529611230696109</v>
       </c>
       <c r="E28">
-        <v>-0.2079682972727104</v>
+        <v>-0.3358057242761925</v>
       </c>
       <c r="F28">
-        <v>-0.9855560999899929</v>
+        <v>-1.539649576859199</v>
       </c>
       <c r="G28">
         <v>24</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SLC4A4,DHRS9,HGD,GSTA1,CA4,ALDH1A1,UGT2B7,ABCG2,CA2,CA8,GHR,ADH1A,ADH1B,ADH1C,CES1,GUCA2A,FABP1,FMO5</t>
+          <t>SLC4A4,ADH1B,ALDH1A1,DHRS9,HGD,FABP1,GSTA1,CA4,UGT2B7,ABCG2,CA2,CA8,GHR,ADH1C,ADH1A</t>
         </is>
       </c>
     </row>
@@ -1216,26 +1216,26 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.8992125984251969</v>
+        <v>0.7019969278033794</v>
       </c>
       <c r="C29">
-        <v>0.9027303754266212</v>
+        <v>0.8701453269857179</v>
       </c>
       <c r="D29">
-        <v>0.03959791239611921</v>
+        <v>0.0497903187820785</v>
       </c>
       <c r="E29">
-        <v>-0.1305268934442824</v>
+        <v>-0.1682413453793595</v>
       </c>
       <c r="F29">
-        <v>-0.632824155874807</v>
+        <v>-0.802963377696162</v>
       </c>
       <c r="G29">
         <v>27</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FOXA1,TACSTD2,SOSTDC1,DHRS9,SPINK5,EDN3</t>
+          <t>FOXA1,TACSTD2,SOSTDC1,SORBS2,DHRS9,SPINK5,EDN3,PLN,GSTA1</t>
         </is>
       </c>
     </row>
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.3575949367088608</v>
+        <v>0.3355371900826447</v>
       </c>
       <c r="C30">
-        <v>0.9027303754266212</v>
+        <v>0.7050953932061425</v>
       </c>
       <c r="D30">
-        <v>0.08455574424412811</v>
+        <v>0.09054289484694737</v>
       </c>
       <c r="E30">
-        <v>-0.2533466637443112</v>
+        <v>-0.2669767534613574</v>
       </c>
       <c r="F30">
-        <v>-1.091728856937465</v>
+        <v>-1.098510022900191</v>
       </c>
       <c r="G30">
         <v>18</v>

--- a/results/fgsea_pre_R_vs_NR.xlsx
+++ b/results/fgsea_pre_R_vs_NR.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,870 +402,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GOBP_ANIMAL_ORGAN_MORPHOGENESIS</t>
+          <t>GOBP_BIOLOGICAL_ADHESION</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.7102649006622517</v>
+        <v>0.08431952662721894</v>
       </c>
       <c r="C2">
-        <v>0.8701453269857179</v>
+        <v>0.1686390532544379</v>
       </c>
       <c r="D2">
-        <v>0.05269730857084192</v>
+        <v>0.1864325584340752</v>
       </c>
       <c r="E2">
-        <v>-0.199386901060544</v>
+        <v>-0.3048571722133759</v>
       </c>
       <c r="F2">
-        <v>-0.7910105682283871</v>
+        <v>-1.466146556520546</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FOXA1,TACSTD2,SOSTDC1,CPE,ADGRG6</t>
+          <t>TACSTD2,NPNT,FREM2,IGFBP2,ADAMDEC1,PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1,ACE2,FLRT3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOBP_BIOLOGICAL_ADHESION</t>
+          <t>GOBP_CELL_CELL_ADHESION</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.3008264462809918</v>
+        <v>0.01524595039030279</v>
       </c>
       <c r="C3">
-        <v>0.7050953932061425</v>
+        <v>0.06098380156121117</v>
       </c>
       <c r="D3">
-        <v>0.09688777032754396</v>
+        <v>0.3807304007227924</v>
       </c>
       <c r="E3">
-        <v>-0.2767904863108314</v>
+        <v>-0.3926412202145071</v>
       </c>
       <c r="F3">
-        <v>-1.13888988278478</v>
+        <v>-1.775486463812069</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>IGFBP2,FOXA1,TACSTD2,PCDH20,CD177,SPINK5</t>
+          <t>NPNT,IGFBP2,PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GOBP_BIOLOGICAL_PROCESS_INVOLVED_IN_INTERSPECIES_INTERACTION_BETWEEN_ORGANISMS</t>
+          <t>GOBP_CELL_CELL_ADHESION_VIA_PLASMA_MEMBRANE_ADHESION_MOLECULES</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.3403908794788273</v>
+        <v>0.004067619007215174</v>
       </c>
       <c r="C4">
-        <v>0.7050953932061425</v>
+        <v>0.02440571404329105</v>
       </c>
       <c r="D4">
-        <v>0.08889452886204495</v>
+        <v>0.4070179189239539</v>
       </c>
       <c r="E4">
-        <v>-0.2636360437322216</v>
+        <v>-0.465544128092878</v>
       </c>
       <c r="F4">
-        <v>-1.113238746534592</v>
+        <v>-1.980775305566078</v>
       </c>
       <c r="G4">
         <v>19</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PLAC8,PLA2G2A,CD177,REG4,ITLN1,SPINK5,ZG16,WFDC2</t>
+          <t>PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1,FLRT3,CLDN18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GOBP_CELLULAR_LIPID_METABOLIC_PROCESS</t>
+          <t>GOBP_CELL_CELL_SIGNALING</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.6423841059602649</v>
+        <v>0.5071225071225072</v>
       </c>
       <c r="C5">
-        <v>0.8701453269857179</v>
+        <v>0.6085470085470086</v>
       </c>
       <c r="D5">
-        <v>0.05736674267685558</v>
+        <v>0.09821233512174378</v>
       </c>
       <c r="E5">
-        <v>-0.212204308611648</v>
+        <v>0.1941556820819595</v>
       </c>
       <c r="F5">
-        <v>-0.8418599709538699</v>
+        <v>0.9412584460584706</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PLA2G2A,ADH1B,ALDH1A1,DHRS9,FABP1,GSTA1</t>
+          <t>PTPRO,CXCL13,CCL18,CXCL6,EPHB1,GABRB2,SNCAIP,RBP4,PCDHB2,WNT11,DKK2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GOBP_CELL_CELL_SIGNALING</t>
+          <t>GOBP_HOMEOSTATIC_PROCESS</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.7421487603305785</v>
+        <v>0.02706583453763263</v>
       </c>
       <c r="C6">
-        <v>0.8701453269857179</v>
+        <v>0.08119750361289789</v>
       </c>
       <c r="D6">
-        <v>0.05060042438536184</v>
+        <v>0.3524878575836192</v>
       </c>
       <c r="E6">
-        <v>-0.1920087568050829</v>
+        <v>0.3554106325472937</v>
       </c>
       <c r="F6">
-        <v>-0.7900446053836605</v>
+        <v>1.723015551833843</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>IGFBP2,FOXA1,SOSTDC1,CPE,EDN3</t>
+          <t>CXCL13,PIGR,NOX1,FGGY,KCNN4,CXCL6,ZFY,ZG16B,MCOLN3,NPSR1,JCHAIN,PYGL,RBP4,CES1,CLDN18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GOBP_CELL_MIGRATION</t>
+          <t>GOBP_HOMOPHILIC_CELL_ADHESION_VIA_PLASMA_MEMBRANE_ADHESION_MOLECULES</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.1352040816326531</v>
+        <v>0.0004640646689761305</v>
       </c>
       <c r="C7">
-        <v>0.7050953932061425</v>
+        <v>0.005568776027713566</v>
       </c>
       <c r="D7">
-        <v>0.1938133027253105</v>
+        <v>0.4984931087665903</v>
       </c>
       <c r="E7">
-        <v>0.3072432292691921</v>
+        <v>-0.5500074414482359</v>
       </c>
       <c r="F7">
-        <v>1.350276324307815</v>
+        <v>-2.242720862798378</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PTPRO,CXCL8,CCL18,CXCL5,JAG1,TWIST1,APCDD1,IL6,CHGA</t>
+          <t>PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GOBP_CHEMICAL_HOMEOSTASIS</t>
+          <t>GOBP_POSITIVE_REGULATION_OF_SIGNALING</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.9042904290429042</v>
+        <v>0.9275766016713092</v>
       </c>
       <c r="C8">
-        <v>0.9365865157944366</v>
+        <v>0.9275766016713092</v>
       </c>
       <c r="D8">
-        <v>0.04148804020022096</v>
+        <v>0.06464845684219278</v>
       </c>
       <c r="E8">
-        <v>-0.1496062992125984</v>
+        <v>0.1373076453319159</v>
       </c>
       <c r="F8">
-        <v>-0.6130932038620537</v>
+        <v>0.621257755494793</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FOXA1,SLC4A4,EDN3,PLN,SCARA5,CA2,MS4A1,CES1,CXCL12,AQP3,PRKACB,MT1A,IL6,FABP3,MT1F,MT1H,SLC30A2</t>
+          <t>NOX1,LEFTY1,CCL18,KCNN4,NPSR1,RBP4,CDKN1C,WNT11,DKK2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GOBP_DEFENSE_RESPONSE</t>
+          <t>GOBP_REGULATION_OF_CELL_POPULATION_PROLIFERATION</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.233983286908078</v>
+        <v>0.8885793871866295</v>
       </c>
       <c r="C9">
-        <v>0.7050953932061425</v>
+        <v>0.9275766016713092</v>
       </c>
       <c r="D9">
-        <v>0.1511487613854837</v>
+        <v>0.06674261342419166</v>
       </c>
       <c r="E9">
-        <v>0.2421707842970665</v>
+        <v>0.1437250935425057</v>
       </c>
       <c r="F9">
-        <v>1.224717641188089</v>
+        <v>0.6502939352477669</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>HLA-C,ORM1,ORM2,CXCL8,CCL18,CXCL5,C2CD4A</t>
+          <t>WT1,NOX1,ENPP3,PF4,EPHB1,HLA-DPB1,RBP4,CDKN1C,WNT11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GOBP_EPITHELIUM_DEVELOPMENT</t>
+          <t>GOBP_RESPONSE_TO_ENDOGENOUS_STIMULUS</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.7801302931596091</v>
+        <v>0.05598755832037325</v>
       </c>
       <c r="C10">
-        <v>0.8701453269857179</v>
+        <v>0.1343701399688958</v>
       </c>
       <c r="D10">
-        <v>0.04763872592908251</v>
+        <v>0.2377938344236881</v>
       </c>
       <c r="E10">
-        <v>-0.1776665547999622</v>
+        <v>-0.3960258320458012</v>
       </c>
       <c r="F10">
-        <v>-0.750220986351632</v>
+        <v>-1.581137020252689</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FOXA1,TACSTD2,SOSTDC1,DHRS9,SPINK5</t>
+          <t>HMGCS2,SOSTDC1,NPNT,STMN2,PCSK1,GRB14,IGFBP2,GHR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GOBP_HOMEOSTATIC_PROCESS</t>
+          <t>GOBP_RESPONSE_TO_OXYGEN_CONTAINING_COMPOUND</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.5969465648854961</v>
+        <v>0.2836990595611285</v>
       </c>
       <c r="C11">
-        <v>0.8701453269857179</v>
+        <v>0.3782654127481713</v>
       </c>
       <c r="D11">
-        <v>0.05700595265823873</v>
+        <v>0.09721508088464663</v>
       </c>
       <c r="E11">
-        <v>-0.1823503771820906</v>
+        <v>-0.2803178137816235</v>
       </c>
       <c r="F11">
-        <v>-0.8833766946844386</v>
+        <v>-1.176001754072518</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FOXA1,PLAC8,PLA2G2A,SLC4A4,ALDH1A1,EDN3,PLN,SCARA5,CA2,SERPINA3,MS4A1,TFF1,CLDN18,TNFRSF17,LGALS2</t>
+          <t>HMGCS2,FABP1,PCSK1,GRB14,IGFBP2,ALDH1A1,GHR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GOBP_IMMUNE_RESPONSE</t>
+          <t>GOBP_SMALL_MOLECULE_METABOLIC_PROCESS</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.4201030927835052</v>
+        <v>0.2570977917981073</v>
       </c>
       <c r="C12">
-        <v>0.8121993127147766</v>
+        <v>0.3782654127481713</v>
       </c>
       <c r="D12">
         <v>0.1035763266125924</v>
       </c>
       <c r="E12">
-        <v>0.2109065884527995</v>
+        <v>-0.2926240759851367</v>
       </c>
       <c r="F12">
-        <v>1.034848199750296</v>
+        <v>-1.193209529021853</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>HLA-C,CXCL8,CCL18,CXCL5,JAG1,IL6,CHGA,JCHAIN,LYZ,ADAMDEC1,CXCL12,KRT6A,TNFRSF17,HLA-DQA1,HLA-DQA2,MS4A1</t>
+          <t>HMGCS2,FABP1,ADH1C,ALDH1A1,GHR,ADH1B,ADH1A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GOBP_ION_TRANSPORT</t>
+          <t>GOBP_TISSUE_DEVELOPMENT</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.2904761904761905</v>
+        <v>0.2744479495268139</v>
       </c>
       <c r="C13">
-        <v>0.7050953932061425</v>
+        <v>0.3782654127481713</v>
       </c>
       <c r="D13">
-        <v>0.09656295543094219</v>
+        <v>0.09957912004959042</v>
       </c>
       <c r="E13">
-        <v>-0.2682525657934992</v>
+        <v>-0.2888408047591169</v>
       </c>
       <c r="F13">
-        <v>-1.160256994456255</v>
+        <v>-1.177782789911055</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CLCA4,CLCA1,PLA2G2A,SLC4A4,EDN3,PLN,CA4,ABCG2,SCARA5,CA2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GOBP_LIPID_METABOLIC_PROCESS</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>0.6257763975155279</v>
-      </c>
-      <c r="C14">
-        <v>0.8701453269857179</v>
-      </c>
-      <c r="D14">
-        <v>0.05559470977588687</v>
-      </c>
-      <c r="E14">
-        <v>-0.1917650830783441</v>
-      </c>
-      <c r="F14">
-        <v>-0.8619796884556938</v>
-      </c>
-      <c r="G14">
-        <v>22</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PLA2G2A,ADH1B,ALDH1A1,DHRS9,HSD17B2,FABP1,GSTA1,UGT2B7,SERPINA3,ADH1C,ADH1A</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GOBP_LOCOMOTION</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>0.1352040816326531</v>
-      </c>
-      <c r="C15">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D15">
-        <v>0.1938133027253105</v>
-      </c>
-      <c r="E15">
-        <v>0.3072432292691921</v>
-      </c>
-      <c r="F15">
-        <v>1.350276324307815</v>
-      </c>
-      <c r="G15">
-        <v>15</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PTPRO,CXCL8,CCL18,CXCL5,JAG1,TWIST1,APCDD1,IL6,CHGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GOBP_MONOCARBOXYLIC_ACID_METABOLIC_PROCESS</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>0.2737704918032787</v>
-      </c>
-      <c r="C16">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D16">
-        <v>0.1020801076627472</v>
-      </c>
-      <c r="E16">
-        <v>-0.2990970261828452</v>
-      </c>
-      <c r="F16">
-        <v>-1.160634396465638</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>SLC4A4,ADH1B,ALDH1A1,DHRS9,FABP1,GSTA1,UGT2B7,ADH1C,ADH1A</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GOBP_NEGATIVE_REGULATION_OF_MULTICELLULAR_ORGANISMAL_PROCESS</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="C17">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D17">
-        <v>0.1133129084220804</v>
-      </c>
-      <c r="E17">
-        <v>-0.314191442695401</v>
-      </c>
-      <c r="F17">
-        <v>-1.21920769364159</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>FOXA1,TACSTD2,PLAC8,SOSTDC1,ALDH1A1,SPINK5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GOBP_NEUROGENESIS</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>0.5868852459016394</v>
-      </c>
-      <c r="C18">
-        <v>0.8701453269857179</v>
-      </c>
-      <c r="D18">
-        <v>0.06116926267466889</v>
-      </c>
-      <c r="E18">
-        <v>-0.2293061701576539</v>
-      </c>
-      <c r="F18">
-        <v>-0.8898136895686733</v>
-      </c>
-      <c r="G18">
-        <v>15</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>FOXA1,STMN2,SPINK5,EDN3,ADGRG6</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GOBP_ORGANIC_ACID_METABOLIC_PROCESS</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>0.05950413223140496</v>
-      </c>
-      <c r="C19">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D19">
-        <v>0.2377938344236881</v>
-      </c>
-      <c r="E19">
-        <v>-0.3717176133274559</v>
-      </c>
-      <c r="F19">
-        <v>-1.52947969677012</v>
-      </c>
-      <c r="G19">
-        <v>18</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>SLC4A4,ADH1B,ALDH1A1,DHRS9,HGD,FABP1,GSTA1,UGT2B7,ABCG2,GHR,ADH1C,ADH1A</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GOBP_POSITIVE_REGULATION_OF_DEVELOPMENTAL_PROCESS</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>0.7508196721311475</v>
-      </c>
-      <c r="C20">
-        <v>0.8701453269857179</v>
-      </c>
-      <c r="D20">
-        <v>0.04969013927246056</v>
-      </c>
-      <c r="E20">
-        <v>-0.1974065976573168</v>
-      </c>
-      <c r="F20">
-        <v>-0.7660286371094517</v>
-      </c>
-      <c r="G20">
-        <v>15</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>FOXA1,TACSTD2,PLA2G2A</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GOBP_PROTEOLYSIS</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>0.1572847682119205</v>
-      </c>
-      <c r="C21">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D21">
-        <v>0.1412251196425309</v>
-      </c>
-      <c r="E21">
-        <v>-0.331589522794687</v>
-      </c>
-      <c r="F21">
-        <v>-1.315486701730523</v>
-      </c>
-      <c r="G21">
-        <v>16</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>CLCA4,CLCA1,SPINK5,CPE,ADGRG6,FABP1,WFDC2,SPINK4,SERPINA3</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GOBP_REGULATION_OF_CELL_DIFFERENTIATION</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>0.2656765676567657</v>
-      </c>
-      <c r="C22">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D22">
-        <v>0.1043439525819486</v>
-      </c>
-      <c r="E22">
-        <v>-0.2906244661829525</v>
-      </c>
-      <c r="F22">
-        <v>-1.190991863515068</v>
-      </c>
-      <c r="G22">
-        <v>17</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>FOXA1,TACSTD2,SOSTDC1,PLA2G2A,SPINK5,EDN3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GOBP_REGULATION_OF_CELL_POPULATION_PROLIFERATION</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>0.6567656765676567</v>
-      </c>
-      <c r="C23">
-        <v>0.8701453269857179</v>
-      </c>
-      <c r="D23">
-        <v>0.05617665863071758</v>
-      </c>
-      <c r="E23">
-        <v>-0.2032047682107265</v>
-      </c>
-      <c r="F23">
-        <v>-0.83274209066104</v>
-      </c>
-      <c r="G23">
-        <v>17</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>IGFBP2,TACSTD2,PLAC8</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GOBP_REGULATION_OF_IMMUNE_SYSTEM_PROCESS</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>0.7168874172185431</v>
-      </c>
-      <c r="C24">
-        <v>0.8701453269857179</v>
-      </c>
-      <c r="D24">
-        <v>0.05226933174993056</v>
-      </c>
-      <c r="E24">
-        <v>-0.1984410842731337</v>
-      </c>
-      <c r="F24">
-        <v>-0.7872583103294483</v>
-      </c>
-      <c r="G24">
-        <v>16</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>IGFBP2,PLA2G2A,CD177,SPINK5,EDN3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GOBP_REGULATION_OF_TRANSPORT</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>0.9377049180327869</v>
-      </c>
-      <c r="C25">
-        <v>0.9377049180327869</v>
-      </c>
-      <c r="D25">
-        <v>0.03951722284739186</v>
-      </c>
-      <c r="E25">
-        <v>-0.1550387596899225</v>
-      </c>
-      <c r="F25">
-        <v>-0.6016218869775409</v>
-      </c>
-      <c r="G25">
-        <v>15</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>CD177,ITLN1,EDN3,PLN,CA2,CES1,ABCA8,CXCL12,CHGA,TRIB3,IL6,FABP3,TWIST1,GPR143,NETO2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GOBP_RESPONSE_TO_ENDOGENOUS_STIMULUS</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>0.2980132450331126</v>
-      </c>
-      <c r="C26">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D26">
-        <v>0.09754492162471996</v>
-      </c>
-      <c r="E26">
-        <v>-0.2934854099699655</v>
-      </c>
-      <c r="F26">
-        <v>-1.164319519849456</v>
-      </c>
-      <c r="G26">
-        <v>16</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>IGFBP2,FOXA1,STMN2,SOSTDC1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>GOBP_RESPONSE_TO_OXYGEN_CONTAINING_COMPOUND</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>0.8793650793650793</v>
-      </c>
-      <c r="C27">
-        <v>0.9365865157944366</v>
-      </c>
-      <c r="D27">
-        <v>0.04098838733747214</v>
-      </c>
-      <c r="E27">
-        <v>-0.1482111017851869</v>
-      </c>
-      <c r="F27">
-        <v>-0.6410487332848407</v>
-      </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>IGFBP2,FOXA1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>GOBP_SMALL_MOLECULE_METABOLIC_PROCESS</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>0.04938271604938271</v>
-      </c>
-      <c r="C28">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D28">
-        <v>0.2529611230696109</v>
-      </c>
-      <c r="E28">
-        <v>-0.3358057242761925</v>
-      </c>
-      <c r="F28">
-        <v>-1.539649576859199</v>
-      </c>
-      <c r="G28">
-        <v>24</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>SLC4A4,ADH1B,ALDH1A1,DHRS9,HGD,FABP1,GSTA1,CA4,UGT2B7,ABCG2,CA2,CA8,GHR,ADH1C,ADH1A</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>GOBP_TISSUE_DEVELOPMENT</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>0.7019969278033794</v>
-      </c>
-      <c r="C29">
-        <v>0.8701453269857179</v>
-      </c>
-      <c r="D29">
-        <v>0.0497903187820785</v>
-      </c>
-      <c r="E29">
-        <v>-0.1682413453793595</v>
-      </c>
-      <c r="F29">
-        <v>-0.802963377696162</v>
-      </c>
-      <c r="G29">
-        <v>27</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>FOXA1,TACSTD2,SOSTDC1,SORBS2,DHRS9,SPINK5,EDN3,PLN,GSTA1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>GOBP_TRANSMEMBRANE_TRANSPORT</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>0.3355371900826447</v>
-      </c>
-      <c r="C30">
-        <v>0.7050953932061425</v>
-      </c>
-      <c r="D30">
-        <v>0.09054289484694737</v>
-      </c>
-      <c r="E30">
-        <v>-0.2669767534613574</v>
-      </c>
-      <c r="F30">
-        <v>-1.098510022900191</v>
-      </c>
-      <c r="G30">
-        <v>18</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>CLCA4,CLCA1,SLC4A4,ITLN1,EDN3,PLN,ABCG2,SCARA5,CA2</t>
+          <t>HMGCS2,TACSTD2,SOSTDC1,NPNT,FREM2</t>
         </is>
       </c>
     </row>

--- a/results/fgsea_pre_R_vs_NR.xlsx
+++ b/results/fgsea_pre_R_vs_NR.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,19 +406,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.08431952662721894</v>
+        <v>0.04029850746268657</v>
       </c>
       <c r="C2">
-        <v>0.1686390532544379</v>
+        <v>0.08635394456289978</v>
       </c>
       <c r="D2">
-        <v>0.1864325584340752</v>
+        <v>0.2765005992544716</v>
       </c>
       <c r="E2">
-        <v>-0.3048571722133759</v>
+        <v>-0.3354218320572089</v>
       </c>
       <c r="F2">
-        <v>-1.466146556520546</v>
+        <v>-1.641727076301942</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -432,328 +432,418 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOBP_CELL_CELL_ADHESION</t>
+          <t>GOBP_BIOLOGICAL_PROCESS_INVOLVED_IN_INTERSPECIES_INTERACTION_BETWEEN_ORGANISMS</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.01524595039030279</v>
+        <v>0.748730964467005</v>
       </c>
       <c r="C3">
-        <v>0.06098380156121117</v>
+        <v>0.8022117476432197</v>
       </c>
       <c r="D3">
-        <v>0.3807304007227924</v>
+        <v>0.07061962471225905</v>
       </c>
       <c r="E3">
-        <v>-0.3926412202145071</v>
+        <v>0.178739647026723</v>
       </c>
       <c r="F3">
-        <v>-1.775486463812069</v>
+        <v>0.7906006470418971</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>NPNT,IGFBP2,PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1</t>
+          <t>HLA-C,CXCL13,CCL18,PF4,CXCL6,PYGL,IGHA1,IGHA2,JCHAIN,DEFB1,REG1A,ACE2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GOBP_CELL_CELL_ADHESION_VIA_PLASMA_MEMBRANE_ADHESION_MOLECULES</t>
+          <t>GOBP_CELL_CELL_ADHESION</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.004067619007215174</v>
+        <v>0.01299416345507116</v>
       </c>
       <c r="C4">
-        <v>0.02440571404329105</v>
+        <v>0.03898249036521349</v>
       </c>
       <c r="D4">
-        <v>0.4070179189239539</v>
+        <v>0.3807304007227924</v>
       </c>
       <c r="E4">
-        <v>-0.465544128092878</v>
+        <v>-0.4203001367851905</v>
       </c>
       <c r="F4">
-        <v>-1.980775305566078</v>
+        <v>-1.868399820504234</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1,FLRT3,CLDN18</t>
+          <t>NPNT,IGFBP2,PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GOBP_CELL_CELL_SIGNALING</t>
+          <t>GOBP_CELL_CELL_ADHESION_VIA_PLASMA_MEMBRANE_ADHESION_MOLECULES</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.5071225071225072</v>
+        <v>0.004540373839682214</v>
       </c>
       <c r="C5">
-        <v>0.6085470085470086</v>
+        <v>0.02146368521431873</v>
       </c>
       <c r="D5">
-        <v>0.09821233512174378</v>
+        <v>0.4070179189239539</v>
       </c>
       <c r="E5">
-        <v>0.1941556820819595</v>
+        <v>-0.4751383376621485</v>
       </c>
       <c r="F5">
-        <v>0.9412584460584706</v>
+        <v>-1.967794598625713</v>
       </c>
       <c r="G5">
         <v>19</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PTPRO,CXCL13,CCL18,CXCL6,EPHB1,GABRB2,SNCAIP,RBP4,PCDHB2,WNT11,DKK2</t>
+          <t>PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1,FLRT3,CLDN18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GOBP_HOMEOSTATIC_PROCESS</t>
+          <t>GOBP_CELL_CELL_SIGNALING</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.02706583453763263</v>
+        <v>0.4200542005420054</v>
       </c>
       <c r="C6">
-        <v>0.08119750361289789</v>
+        <v>0.5250677506775068</v>
       </c>
       <c r="D6">
-        <v>0.3524878575836192</v>
+        <v>0.1067298843646056</v>
       </c>
       <c r="E6">
-        <v>0.3554106325472937</v>
+        <v>0.2054282121863601</v>
       </c>
       <c r="F6">
-        <v>1.723015551833843</v>
+        <v>1.012425821117346</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CXCL13,PIGR,NOX1,FGGY,KCNN4,CXCL6,ZFY,ZG16B,MCOLN3,NPSR1,JCHAIN,PYGL,RBP4,CES1,CLDN18</t>
+          <t>PTPRO,CXCL13,CCL18,CXCL6,EPHB1,SYT13,GABRB2,SNCAIP,DKK2,PCDHB2,RBP4,WNT11,CPE,DCDC2,GRP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GOBP_HOMOPHILIC_CELL_ADHESION_VIA_PLASMA_MEMBRANE_ADHESION_MOLECULES</t>
+          <t>GOBP_DEFENSE_RESPONSE</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.0004640646689761305</v>
+        <v>0.002028218748218986</v>
       </c>
       <c r="C7">
-        <v>0.005568776027713566</v>
+        <v>0.01521164061164239</v>
       </c>
       <c r="D7">
-        <v>0.4984931087665903</v>
+        <v>0.4317076958033464</v>
       </c>
       <c r="E7">
-        <v>-0.5500074414482359</v>
+        <v>0.4518596346757847</v>
       </c>
       <c r="F7">
-        <v>-2.242720862798378</v>
+        <v>2.053612832517916</v>
       </c>
       <c r="G7">
         <v>17</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1</t>
+          <t>HLA-C,CXCL13,NOX1,CCL18,C2CD4A,KCNN4,ENPP3,PF4,CXCL6,IL33,IGHA1,IGHA2,JCHAIN,DEFB1,DCDC2,ACE2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GOBP_POSITIVE_REGULATION_OF_SIGNALING</t>
+          <t>GOBP_HOMEOSTATIC_PROCESS</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.9275766016713092</v>
+        <v>0.03730310227565595</v>
       </c>
       <c r="C8">
-        <v>0.9275766016713092</v>
+        <v>0.08635394456289978</v>
       </c>
       <c r="D8">
-        <v>0.06464845684219278</v>
+        <v>0.3217759180753611</v>
       </c>
       <c r="E8">
-        <v>0.1373076453319159</v>
+        <v>0.3451120179664843</v>
       </c>
       <c r="F8">
-        <v>0.621257755494793</v>
+        <v>1.659595755023723</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NOX1,LEFTY1,CCL18,KCNN4,NPSR1,RBP4,CDKN1C,WNT11,DKK2</t>
+          <t>CXCL13,NOX1,PIGR,KCNN4,FGGY,CXCL6,ZFY,MCOLN3,PYGL,IGHA1,IGHA2,CES1,RBP4,JCHAIN,CLDN18</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GOBP_REGULATION_OF_CELL_POPULATION_PROLIFERATION</t>
+          <t>GOBP_HOMOPHILIC_CELL_ADHESION_VIA_PLASMA_MEMBRANE_ADHESION_MOLECULES</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.8885793871866295</v>
+        <v>0.0001909840077693266</v>
       </c>
       <c r="C9">
-        <v>0.9275766016713092</v>
+        <v>0.002864760116539898</v>
       </c>
       <c r="D9">
-        <v>0.06674261342419166</v>
+        <v>0.5188480777437918</v>
       </c>
       <c r="E9">
-        <v>0.1437250935425057</v>
+        <v>-0.5756596856366132</v>
       </c>
       <c r="F9">
-        <v>0.6502939352477669</v>
+        <v>-2.268614711468442</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>WT1,NOX1,ENPP3,PF4,EPHB1,HLA-DPB1,RBP4,CDKN1C,WNT11</t>
+          <t>PCDH19,PCDHAC2,PCDHAC1,PCDHA9,PCDHA8,PCDHA7,PCDHA6,PCDHA5,PCDHA4,PCDHA3,PCDHA2,PCDHA13,PCDHA12,PCDHA11,PCDHA10,PCDHA1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GOBP_RESPONSE_TO_ENDOGENOUS_STIMULUS</t>
+          <t>GOBP_IMMUNE_RESPONSE</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.05598755832037325</v>
+        <v>0.005723649390484995</v>
       </c>
       <c r="C10">
-        <v>0.1343701399688958</v>
+        <v>0.02146368521431873</v>
       </c>
       <c r="D10">
-        <v>0.2377938344236881</v>
+        <v>0.4070179189239539</v>
       </c>
       <c r="E10">
-        <v>-0.3960258320458012</v>
+        <v>0.4659889102112172</v>
       </c>
       <c r="F10">
-        <v>-1.581137020252689</v>
+        <v>1.973940777156735</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>HMGCS2,SOSTDC1,NPNT,STMN2,PCSK1,GRB14,IGFBP2,GHR</t>
+          <t>HLA-C,CXCL13,PIGR,CCL18,KCNN4,ENPP3,PF4,CXCL6,HLA-DPB1,IGHA1,IGHA2,JCHAIN,DEFB1,REG1A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GOBP_RESPONSE_TO_OXYGEN_CONTAINING_COMPOUND</t>
+          <t>GOBP_POSITIVE_REGULATION_OF_SIGNALING</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.2836990595611285</v>
+        <v>0.9402597402597402</v>
       </c>
       <c r="C11">
-        <v>0.3782654127481713</v>
+        <v>0.9402597402597402</v>
       </c>
       <c r="D11">
-        <v>0.09721508088464663</v>
+        <v>0.06064040094941603</v>
       </c>
       <c r="E11">
-        <v>-0.2803178137816235</v>
+        <v>0.139092670701952</v>
       </c>
       <c r="F11">
-        <v>-1.176001754072518</v>
+        <v>0.5892000613872286</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>HMGCS2,FABP1,PCSK1,GRB14,IGFBP2,ALDH1A1,GHR</t>
+          <t>NOX1,CCL18,LEFTY1,KCNN4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GOBP_SMALL_MOLECULE_METABOLIC_PROCESS</t>
+          <t>GOBP_REGULATION_OF_CELL_POPULATION_PROLIFERATION</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.2570977917981073</v>
+        <v>0.5498721227621484</v>
       </c>
       <c r="C12">
-        <v>0.3782654127481713</v>
+        <v>0.634467833956325</v>
       </c>
       <c r="D12">
-        <v>0.1035763266125924</v>
+        <v>0.08730982576379309</v>
       </c>
       <c r="E12">
-        <v>-0.2926240759851367</v>
+        <v>0.2030070010171375</v>
       </c>
       <c r="F12">
-        <v>-1.193209529021853</v>
+        <v>0.9226267415519447</v>
       </c>
       <c r="G12">
         <v>17</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>HMGCS2,FABP1,ADH1C,ALDH1A1,GHR,ADH1B,ADH1A</t>
+          <t>WT1,NOX1,ENPP3,PF4,IL33,EPHB1,HLA-DPB1,CDKN1C,RBP4,WNT11,BEX4,REG1A,ACE2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>GOBP_RESPONSE_TO_ENDOGENOUS_STIMULUS</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.05582922824302135</v>
+      </c>
+      <c r="C13">
+        <v>0.104679802955665</v>
+      </c>
+      <c r="D13">
+        <v>0.2450417854309962</v>
+      </c>
+      <c r="E13">
+        <v>-0.3996964496695634</v>
+      </c>
+      <c r="F13">
+        <v>-1.53670206216753</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>HMGCS2,SOSTDC1,NPNT,STMN2,PCSK1,GRB14,IGFBP2,GHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GOBP_RESPONSE_TO_OXYGEN_CONTAINING_COMPOUND</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="C14">
+        <v>0.4020979020979021</v>
+      </c>
+      <c r="D14">
+        <v>0.09624060232812902</v>
+      </c>
+      <c r="E14">
+        <v>-0.2845940113137485</v>
+      </c>
+      <c r="F14">
+        <v>-1.153760883474387</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>HMGCS2,FABP1,PCSK1,GRB14,ALDH1A1,IGFBP2,GHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GOBP_SMALL_MOLECULE_METABOLIC_PROCESS</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.2696078431372549</v>
+      </c>
+      <c r="C15">
+        <v>0.4020979020979021</v>
+      </c>
+      <c r="D15">
+        <v>0.1028218428408151</v>
+      </c>
+      <c r="E15">
+        <v>-0.2966239844553293</v>
+      </c>
+      <c r="F15">
+        <v>-1.168964149653052</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>HMGCS2,FABP1,ADH1C,ALDH1A1,GHR,ADH1B,ADH1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>GOBP_TISSUE_DEVELOPMENT</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.2744479495268139</v>
-      </c>
-      <c r="C13">
-        <v>0.3782654127481713</v>
-      </c>
-      <c r="D13">
-        <v>0.09957912004959042</v>
-      </c>
-      <c r="E13">
-        <v>-0.2888408047591169</v>
-      </c>
-      <c r="F13">
-        <v>-1.177782789911055</v>
-      </c>
-      <c r="G13">
+      <c r="B16">
+        <v>0.2598039215686275</v>
+      </c>
+      <c r="C16">
+        <v>0.4020979020979021</v>
+      </c>
+      <c r="D16">
+        <v>0.1051251315970008</v>
+      </c>
+      <c r="E16">
+        <v>-0.298736100612805</v>
+      </c>
+      <c r="F16">
+        <v>-1.177287778885279</v>
+      </c>
+      <c r="G16">
         <v>17</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>HMGCS2,TACSTD2,SOSTDC1,NPNT,FREM2</t>
         </is>
